--- a/project/src/app/data/guide.xlsx
+++ b/project/src/app/data/guide.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\develop\framework\nnt.game.h5\project\src\app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECF1756A-F6BF-43F8-8B07-8BEB87685944}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCFB3537-2DF0-4194-ADCC-8EAE8BEC2F98}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22950" windowHeight="9930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -523,7 +523,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -614,7 +614,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>16</v>
@@ -631,7 +631,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>17</v>
@@ -648,7 +648,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>18</v>
@@ -665,7 +665,7 @@
         <v>5</v>
       </c>
       <c r="D8" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>19</v>

--- a/project/src/app/data/guide.xlsx
+++ b/project/src/app/data/guide.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\develop\framework\nnt.game.h5\project\src\app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCFB3537-2DF0-4194-ADCC-8EAE8BEC2F98}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2735E6F7-8DC7-4098-8533-98D6FA090B62}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22950" windowHeight="9930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Guide" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Guide!$C$1:$C$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Guide!$C$1:$C$12</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
   <si>
     <t>新手id</t>
   </si>
@@ -182,6 +182,14 @@
   </si>
   <si>
     <t>Str</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>panelback</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -520,10 +528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -588,7 +596,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>10</v>
@@ -605,70 +613,155 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
-        <v>2</v>
+        <v>101</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C5" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
-        <v>4</v>
+        <v>201</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C7" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
+        <v>300</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="1">
+        <v>3</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="1">
+        <v>301</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="1">
+        <v>3</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="1">
+        <v>400</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="1">
+        <v>4</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="1">
+        <v>401</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="1">
+        <v>4</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" s="1">
+        <v>500</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="1">
         <v>5</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="1">
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" s="1">
+        <v>501</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="1">
         <v>5</v>
       </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>19</v>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
